--- a/PianoDiQualifica/Img/Excel/metriche.xlsx
+++ b/PianoDiQualifica/Img/Excel/metriche.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\7DOS\7DOS\PianoDiQualifica\Img\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="930" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SV" sheetId="2" r:id="rId1"/>
@@ -304,16 +304,16 @@
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2198,7 +2198,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2691,7 +2690,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3447,16 +3445,16 @@
                   <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82</c:v>
+                  <c:v>0.73499999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5806,7 +5804,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6299,7 +6296,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7409,19 +7405,19 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.06</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.06</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7884,7 +7880,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8376,7 +8371,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8868,7 +8862,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9354,7 +9347,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t>Blocco di operazioni non corrette</a:t>
+              <a:t>Operazioni con gestione errori</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -9446,22 +9439,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9523,22 +9516,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9617,22 +9610,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.12</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9852,7 +9845,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10344,7 +10336,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10835,7 +10826,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11374,7 +11364,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12086,7 +12075,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12612,7 +12600,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13140,7 +13127,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -30031,7 +30017,7 @@
   <dimension ref="B10:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30181,7 +30167,7 @@
         <v>43544</v>
       </c>
       <c r="C20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D20">
         <v>-5</v>
@@ -30195,7 +30181,7 @@
         <v>43551</v>
       </c>
       <c r="C21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D21">
         <v>-5</v>
@@ -30209,7 +30195,7 @@
         <v>43558</v>
       </c>
       <c r="C22">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D22">
         <v>-5</v>
@@ -30223,7 +30209,7 @@
         <v>43565</v>
       </c>
       <c r="C23">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D23">
         <v>-5</v>
@@ -31047,7 +31033,7 @@
   <dimension ref="B16:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31097,7 +31083,7 @@
         <v>43544</v>
       </c>
       <c r="C20" s="2">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="D20" s="2">
         <v>0.7</v>
@@ -31111,7 +31097,7 @@
         <v>43551</v>
       </c>
       <c r="C21" s="2">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="D21" s="2">
         <v>0.7</v>
@@ -31125,7 +31111,7 @@
         <v>43558</v>
       </c>
       <c r="C22" s="2">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
       <c r="D22" s="2">
         <v>0.7</v>
@@ -31139,7 +31125,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="2">
-        <v>0.82</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="D23" s="2">
         <v>0.7</v>
@@ -32290,8 +32276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32427,7 +32413,7 @@
         <v>43537</v>
       </c>
       <c r="C19" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D19" s="2">
         <v>-0.1</v>
@@ -32441,7 +32427,7 @@
         <v>43544</v>
       </c>
       <c r="C20" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D20" s="2">
         <v>-0.1</v>
@@ -32455,7 +32441,7 @@
         <v>43551</v>
       </c>
       <c r="C21" s="2">
-        <v>0.06</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D21" s="2">
         <v>-0.1</v>
@@ -32469,7 +32455,7 @@
         <v>43558</v>
       </c>
       <c r="C22" s="2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D22" s="2">
         <v>-0.1</v>
@@ -32483,7 +32469,7 @@
         <v>43565</v>
       </c>
       <c r="C23" s="2">
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D23" s="2">
         <v>-0.1</v>
@@ -32947,7 +32933,7 @@
   <dimension ref="B16:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32969,13 +32955,13 @@
         <v>43530</v>
       </c>
       <c r="C18" s="2">
-        <v>0.12</v>
+        <v>0.63</v>
       </c>
       <c r="D18" s="2">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -32983,13 +32969,13 @@
         <v>43537</v>
       </c>
       <c r="C19" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="D19" s="2">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -32997,13 +32983,13 @@
         <v>43544</v>
       </c>
       <c r="C20" s="2">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="D20" s="2">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -33011,13 +32997,13 @@
         <v>43551</v>
       </c>
       <c r="C21" s="2">
-        <v>0.12</v>
+        <v>0.8</v>
       </c>
       <c r="D21" s="2">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -33025,13 +33011,13 @@
         <v>43558</v>
       </c>
       <c r="C22" s="2">
-        <v>0.09</v>
+        <v>0.83</v>
       </c>
       <c r="D22" s="2">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -33039,13 +33025,13 @@
         <v>43565</v>
       </c>
       <c r="C23" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.87</v>
       </c>
       <c r="D23" s="2">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
@@ -34282,8 +34268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B16:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
